--- a/testData/SkillsPopulate.xlsx
+++ b/testData/SkillsPopulate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2457305_cognizant_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457173\IdeaProjects\PentagonProfileStats\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37808DC-366E-49AC-A103-3C5A6C615362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2300BDF2-7271-4913-9D5E-FDD57A302702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E7E3CB9A-3F51-4979-88D0-656A78D2B006}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Letter</t>
   </si>
@@ -92,21 +92,12 @@
     <t>HTML</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
     <t>JavaScript,JSP,Java,Jest,Junit</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -119,15 +110,6 @@
     <t>Node.js</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -140,35 +122,17 @@
     <t>Spring Boot,Spring,SQL,Spring MVC,Selenium</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>Vue</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,18 +497,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBC6564-B303-45C4-972E-ABD2AB5D8016}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -560,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -568,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -576,7 +540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -584,7 +548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -592,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -600,7 +564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -608,7 +572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -616,112 +580,52 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
